--- a/文件/福州办-2025-11-07-05-华膜陈佳明华南23170+其他143292发货单.xlsx
+++ b/文件/福州办-2025-11-07-05-华膜陈佳明华南23170+其他143292发货单.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="82" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$29:$J$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$22:$J$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>杭州南泵流体机械有限公司发货通知单2025年（11月07日发货单）福州办25110705</t>
   </si>
@@ -161,30 +161,6 @@
     <t>CDL8-12FSWPC</t>
   </si>
   <si>
-    <t>CDL12-10FSWPC</t>
-  </si>
-  <si>
-    <t>CDL15-12FSWPC</t>
-  </si>
-  <si>
-    <t>CHL4-40LSWSC</t>
-  </si>
-  <si>
-    <t>CHL8-40LSWSC</t>
-  </si>
-  <si>
-    <t>CHL12-30LSWSC</t>
-  </si>
-  <si>
-    <t>CHL12-40LSWSC</t>
-  </si>
-  <si>
-    <t>NPS2-9YDWPC</t>
-  </si>
-  <si>
-    <t>NPS2-11YDWPC</t>
-  </si>
-  <si>
     <t>JET550-DS</t>
   </si>
   <si>
@@ -195,42 +171,6 @@
   </si>
   <si>
     <t>备注2：附送货单、现货发</t>
-  </si>
-  <si>
-    <t>辽宁华膜水处理环保设备有限公司</t>
-  </si>
-  <si>
-    <t>CDLF12-5FSWSC</t>
-  </si>
-  <si>
-    <t>物流送货/辽宁省/沈阳市/铁西经济开发区二十三号路87-1号辽宁孚诺泰/苏庆航/13998869120</t>
-  </si>
-  <si>
-    <t>CDLF15-4FSWSC</t>
-  </si>
-  <si>
-    <t>CDL20-3FSWPC</t>
-  </si>
-  <si>
-    <t>CDL20-6FSWPC</t>
-  </si>
-  <si>
-    <t>CDL85-20-2FSWPC</t>
-  </si>
-  <si>
-    <t>备注1：333</t>
-  </si>
-  <si>
-    <t>无锡双福环保设备有限公司</t>
-  </si>
-  <si>
-    <t>CHLF4-60LSWSC</t>
-  </si>
-  <si>
-    <t>物流送货/江苏省/无锡市/宜兴市/远东大道172号江苏恒沁源环保科技有限公司车间周日无人收货不要派送/陈志文/+86-13995960457</t>
-  </si>
-  <si>
-    <t>备注1：444</t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1428,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1630,9 +1570,7 @@
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="8">
-        <v>1100281548</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1771,7 @@
         <v>2801</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14:H24" si="0">G14*F14</f>
+        <f>G14*F14</f>
         <v>11204</v>
       </c>
       <c r="I14" s="10">
@@ -1844,54 +1782,39 @@
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="8">
-        <v>1100134676</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2995</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>11980</v>
-      </c>
-      <c r="I15" s="10">
-        <v>45969</v>
-      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="8">
-        <v>1100279216</v>
+        <v>1100411876</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9">
         <v>3900</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>4019</v>
+        <v>378</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
-        <v>8038</v>
+        <f>G16*F16</f>
+        <v>3780</v>
       </c>
       <c r="I16" s="10">
-        <v>45969</v>
+        <v>45985</v>
       </c>
       <c r="J16" s="11"/>
     </row>
@@ -1899,216 +1822,131 @@
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="8">
-        <v>1100215106</v>
+        <v>1100411877</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="9">
         <v>3900</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3">
-        <v>601</v>
+        <v>418</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>3005</v>
+        <f>G17*F17</f>
+        <v>4180</v>
       </c>
       <c r="I17" s="10">
-        <v>45969</v>
+        <v>45985</v>
       </c>
       <c r="J17" s="11"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="8">
-        <v>1100284814</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="14">
+        <f>SUM(F13:F18)</f>
+        <v>26</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f>SUM(H13:H18)</f>
+        <v>22384</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1186</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>5930</v>
-      </c>
-      <c r="I18" s="10">
-        <v>45969</v>
-      </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="8">
-        <v>1100284813</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1430</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>7150</v>
-      </c>
-      <c r="I19" s="10">
-        <v>45969</v>
-      </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8">
-        <v>1100284935</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1568</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="0"/>
-        <v>7840</v>
-      </c>
-      <c r="I20" s="10">
-        <v>45969</v>
-      </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="8">
-        <v>1100399980</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3">
-        <v>856</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="0"/>
-        <v>8560</v>
-      </c>
-      <c r="I21" s="10">
-        <v>45996</v>
-      </c>
-      <c r="J21" s="11"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="8">
-        <v>1100399982</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3">
-        <v>910</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="0"/>
-        <v>9100</v>
-      </c>
-      <c r="I22" s="10">
-        <v>45996</v>
-      </c>
-      <c r="J22" s="11"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="8">
-        <v>1100411876</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3">
-        <v>378</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="0"/>
-        <v>3780</v>
-      </c>
-      <c r="I23" s="10">
-        <v>45985</v>
-      </c>
-      <c r="J23" s="11"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="8">
-        <v>1100411877</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>10</v>
-      </c>
-      <c r="G24" s="3">
-        <v>418</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="0"/>
-        <v>4180</v>
-      </c>
-      <c r="I24" s="10">
-        <v>45985</v>
-      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
@@ -2124,223 +1962,112 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="14">
-        <f>SUM(F13:F25)</f>
-        <v>72</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <f>SUM(H13:H25)</f>
-        <v>83987</v>
-      </c>
-      <c r="I26" s="15"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1100280951</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1841</v>
-      </c>
-      <c r="H30" s="3">
-        <f>G30*F30</f>
-        <v>3682</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" customHeight="1" spans="1:10">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="8">
-        <v>1100206384</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2253</v>
-      </c>
-      <c r="H31" s="3">
-        <f>G31*F31</f>
-        <v>4506</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" customHeight="1" spans="1:10">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="8">
-        <v>1100142978</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2396</v>
-      </c>
-      <c r="H32" s="3">
-        <f>G32*F32</f>
-        <v>4792</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" customHeight="1" spans="1:10">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="8">
-        <v>1100143511</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3413</v>
-      </c>
-      <c r="H33" s="3">
-        <f>G33*F33</f>
-        <v>17065</v>
-      </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:10">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="8">
-        <v>1100280582</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>5317</v>
-      </c>
-      <c r="H34" s="3">
-        <f>G34*F34</f>
-        <v>5317</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" customHeight="1" spans="1:10">
       <c r="A35" s="11"/>
@@ -2370,51 +2097,31 @@
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="14">
-        <f>SUM(F30:F36)</f>
-        <v>12</v>
-      </c>
+      <c r="F37" s="14"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <f>SUM(H30:H36)</f>
-        <v>35362</v>
-      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="15"/>
       <c r="J37" s="11"/>
     </row>
     <row r="38" customHeight="1" spans="1:10">
-      <c r="A38" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="A38" s="16"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -2422,181 +2129,38 @@
       <c r="I39" s="26"/>
       <c r="J39" s="27"/>
     </row>
-    <row r="40" customHeight="1" spans="1:10">
-      <c r="A40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:10">
-      <c r="A41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="8">
-        <v>1100284951</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>773</v>
-      </c>
-      <c r="H41" s="3">
-        <f>G41*F41</f>
-        <v>773</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:10">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:10">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:10">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="14">
-        <f>SUM(F41:F43)</f>
-        <v>1</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <f>SUM(H41:H43)</f>
-        <v>773</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:10">
-      <c r="A45" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:10">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="27"/>
-    </row>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
     <mergeCell ref="D38:I38"/>
     <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D46:I46"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A34:A37"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B13:B26"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="J4:J9"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J13:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J23:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J37"/>
     <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="J45:J46"/>
     <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A27:B28"/>
     <mergeCell ref="A38:B39"/>
-    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A31:B32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.156944444444444" right="0.156944444444444" top="0.236111111111111" bottom="0.275" header="0.156944444444444" footer="0.196527777777778"/>
